--- a/sources/case/getOrganizationByName.xlsx
+++ b/sources/case/getOrganizationByName.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>Path</t>
   </si>
@@ -105,6 +105,21 @@
   </si>
   <si>
     <t>organization_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get_Organization_3</t>
+  </si>
+  <si>
+    <t>get_Organization_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>position_3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -436,8 +451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -498,10 +513,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -554,6 +569,20 @@
         <v>20</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -562,10 +591,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -588,6 +617,11 @@
         <v>17</v>
       </c>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sources/case/getOrganizationByName.xlsx
+++ b/sources/case/getOrganizationByName.xlsx
@@ -51,75 +51,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>organization_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parent_organization_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b89d7d04-0f75-11e7-9aa4-00163e007053</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getOrganizationByName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取子部门ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get_Organization_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get_Organization_2</t>
+  </si>
+  <si>
+    <t>position_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization_2</t>
+  </si>
+  <si>
+    <t>position_2</t>
+  </si>
+  <si>
+    <t>position_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b89d7d04-0f75-11e7-9aa4-00163e007053</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get_Organization_3</t>
+  </si>
+  <si>
+    <t>get_Organization_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>position_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">/hr/v1/formrecords/{uuid}?form=organization </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>organization_Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>parent_organization_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b89d7d04-0f75-11e7-9aa4-00163e007053</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getOrganizationByName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取子部门ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get_Organization_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get_Organization_2</t>
-  </si>
-  <si>
-    <t>position_Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>organization_2</t>
-  </si>
-  <si>
-    <t>position_2</t>
-  </si>
-  <si>
-    <t>position_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b89d7d04-0f75-11e7-9aa4-00163e007053</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>organization_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get_Organization_3</t>
-  </si>
-  <si>
-    <t>get_Organization_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>organization_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>position_3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -452,7 +452,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -487,19 +487,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -532,55 +532,55 @@
         <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
         <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>25</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -609,17 +609,17 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/sources/case/getOrganizationByName.xlsx
+++ b/sources/case/getOrganizationByName.xlsx
@@ -9,19 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
     <sheet name="Params" sheetId="2" r:id="rId2"/>
     <sheet name="Expectations" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>Path</t>
   </si>
@@ -55,72 +55,66 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>getOrganizationByName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取子部门ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get_Organization_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get_Organization_2</t>
+  </si>
+  <si>
+    <t>position_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get_Organization_3</t>
+  </si>
+  <si>
+    <t>get_Organization_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">/hr/v1/formrecords/{uuid}?form=organization </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>parent_organization_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>b89d7d04-0f75-11e7-9aa4-00163e007053</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getOrganizationByName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取子部门ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get_Organization_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get_Organization_2</t>
-  </si>
-  <si>
-    <t>position_Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>organization_2</t>
-  </si>
-  <si>
-    <t>position_2</t>
-  </si>
-  <si>
-    <t>position_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b89d7d04-0f75-11e7-9aa4-00163e007053</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>organization_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get_Organization_3</t>
-  </si>
-  <si>
-    <t>get_Organization_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>organization_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>position_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">/hr/v1/formrecords/{uuid}?form=organization </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>$csv{data.Tenant.microfastup.parent_organization_ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${organization_1.name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${organization_2.name}</t>
+  </si>
+  <si>
+    <t>${organization_3.name}</t>
+  </si>
+  <si>
+    <t>${position_1.name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${position_2.name}</t>
+  </si>
+  <si>
+    <t>${position_3.name}</t>
   </si>
 </sst>
 </file>
@@ -451,7 +445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -487,19 +481,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
         <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -515,16 +509,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -532,52 +526,52 @@
         <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
         <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -609,17 +603,17 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/sources/case/getOrganizationByName.xlsx
+++ b/sources/case/getOrganizationByName.xlsx
@@ -97,24 +97,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${organization_1.name}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${organization_2.name}</t>
-  </si>
-  <si>
-    <t>${organization_3.name}</t>
-  </si>
-  <si>
-    <t>${position_1.name}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${position_2.name}</t>
-  </si>
-  <si>
-    <t>${position_3.name}</t>
+    <t>organization_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization_2</t>
+  </si>
+  <si>
+    <t>organization_3</t>
+  </si>
+  <si>
+    <t>position_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>position_2</t>
+  </si>
+  <si>
+    <t>position_3</t>
   </si>
 </sst>
 </file>
@@ -510,15 +510,15 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
